--- a/templates/cambio_horario_trabajo.xlsx
+++ b/templates/cambio_horario_trabajo.xlsx
@@ -570,12 +570,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,22 +582,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,32 +621,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,16 +639,25 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -666,10 +666,10 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,8 +948,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26:W26"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -999,23 +999,23 @@
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
@@ -1027,21 +1027,21 @@
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="19"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
@@ -1113,27 +1113,27 @@
       <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="36">
         <v>0</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
       <c r="W6" s="11"/>
       <c r="X6" s="20"/>
     </row>
@@ -1147,23 +1147,23 @@
       <c r="G7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
       <c r="W7" s="13"/>
       <c r="X7" s="22"/>
     </row>
@@ -1177,23 +1177,23 @@
       <c r="G8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
       <c r="W8" s="13"/>
       <c r="X8" s="22"/>
     </row>
@@ -1207,23 +1207,23 @@
       <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
       <c r="W9" s="13"/>
       <c r="X9" s="27"/>
     </row>
@@ -1237,23 +1237,23 @@
       <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
       <c r="W10" s="14"/>
       <c r="X10" s="27"/>
     </row>
@@ -1267,23 +1267,23 @@
       <c r="G11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
       <c r="W11" s="14"/>
       <c r="X11" s="27"/>
     </row>
@@ -1297,23 +1297,23 @@
       <c r="G12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
       <c r="W12" s="15"/>
       <c r="X12" s="27"/>
     </row>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="31"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="66"/>
       <c r="O14" s="30"/>
       <c r="P14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="32"/>
+      <c r="Q14" s="65"/>
       <c r="R14" s="28"/>
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
@@ -1386,9 +1386,9 @@
       <c r="H15" s="29"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
@@ -1403,122 +1403,122 @@
     </row>
     <row r="16" spans="1:24" ht="44.25" customHeight="1">
       <c r="A16" s="25"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="46" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="45"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="47"/>
       <c r="X16" s="23"/>
     </row>
     <row r="17" spans="1:24" ht="44.25" customHeight="1">
       <c r="A17" s="25"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="46" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="45"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="47"/>
       <c r="X17" s="23"/>
     </row>
     <row r="18" spans="1:24" ht="44.25" customHeight="1">
       <c r="A18" s="25"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="43" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="46" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="45"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="47"/>
       <c r="X18" s="23"/>
     </row>
     <row r="19" spans="1:24" ht="51" customHeight="1">
       <c r="A19" s="25"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="46" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="45"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="47"/>
       <c r="X19" s="23"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
@@ -1533,15 +1533,15 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="35"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="33"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
@@ -1575,34 +1575,34 @@
     </row>
     <row r="22" spans="1:24" ht="16.5" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="38" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="38" t="s">
+      <c r="P22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
       <c r="X22" s="17"/>
     </row>
     <row r="23" spans="1:24" ht="7.5" customHeight="1">
@@ -1658,48 +1658,48 @@
     </row>
     <row r="25" spans="1:24" ht="16.5" customHeight="1">
       <c r="A25" s="24"/>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="40" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="41" t="s">
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="58"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="55"/>
       <c r="X25" s="24"/>
     </row>
     <row r="26" spans="1:24" ht="16.5" customHeight="1">
       <c r="A26" s="24"/>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="42" t="s">
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="63"/>
@@ -1708,16 +1708,16 @@
       <c r="M26" s="63"/>
       <c r="N26" s="63"/>
       <c r="O26" s="64"/>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="66"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="53"/>
       <c r="X26" s="24"/>
     </row>
     <row r="27" spans="1:24" ht="16.5" customHeight="1"/>
@@ -2696,27 +2696,6 @@
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="H7:V7"/>
-    <mergeCell ref="H8:V8"/>
-    <mergeCell ref="H9:V9"/>
-    <mergeCell ref="H10:V10"/>
-    <mergeCell ref="H11:V11"/>
-    <mergeCell ref="H12:V12"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:W16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M17:W17"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="M18:W18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:W19"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="P22:W22"/>
     <mergeCell ref="P26:W26"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B25:H25"/>
@@ -2724,6 +2703,27 @@
     <mergeCell ref="P25:W25"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="I26:O26"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:W19"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="P22:W22"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:W16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:W17"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="M18:W18"/>
+    <mergeCell ref="H9:V9"/>
+    <mergeCell ref="H10:V10"/>
+    <mergeCell ref="H11:V11"/>
+    <mergeCell ref="H12:V12"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="H7:V7"/>
+    <mergeCell ref="H8:V8"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:H15 W12:W15">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">

--- a/templates/cambio_horario_trabajo.xlsx
+++ b/templates/cambio_horario_trabajo.xlsx
@@ -95,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,80 +106,87 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF2F5496"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="4"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF4472C4"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -191,6 +198,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -198,18 +206,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF2F5496"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF2F5496"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -222,16 +233,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -534,55 +540,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,71 +627,38 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,10 +669,13 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -999,23 +1005,23 @@
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
@@ -1027,21 +1033,21 @@
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="19"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
@@ -1113,27 +1119,27 @@
       <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="48">
         <v>0</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
       <c r="W6" s="11"/>
       <c r="X6" s="20"/>
     </row>
@@ -1147,23 +1153,23 @@
       <c r="G7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
       <c r="W7" s="13"/>
       <c r="X7" s="22"/>
     </row>
@@ -1177,23 +1183,23 @@
       <c r="G8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
       <c r="W8" s="13"/>
       <c r="X8" s="22"/>
     </row>
@@ -1207,23 +1213,23 @@
       <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
       <c r="W9" s="13"/>
       <c r="X9" s="27"/>
     </row>
@@ -1237,23 +1243,23 @@
       <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
       <c r="W10" s="14"/>
       <c r="X10" s="27"/>
     </row>
@@ -1267,23 +1273,23 @@
       <c r="G11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
       <c r="W11" s="14"/>
       <c r="X11" s="27"/>
     </row>
@@ -1297,23 +1303,23 @@
       <c r="G12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
       <c r="W12" s="15"/>
       <c r="X12" s="27"/>
     </row>
@@ -1356,17 +1362,17 @@
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="66"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="36"/>
       <c r="O14" s="30"/>
       <c r="P14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="65"/>
+      <c r="Q14" s="35"/>
       <c r="R14" s="28"/>
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
@@ -1404,121 +1410,121 @@
     <row r="16" spans="1:24" ht="44.25" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="32"/>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="47"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="41"/>
       <c r="X16" s="23"/>
     </row>
     <row r="17" spans="1:24" ht="44.25" customHeight="1">
       <c r="A17" s="25"/>
       <c r="B17" s="32"/>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48" t="s">
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="47"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="41"/>
       <c r="X17" s="23"/>
     </row>
     <row r="18" spans="1:24" ht="44.25" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="47"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="41"/>
       <c r="X18" s="23"/>
     </row>
     <row r="19" spans="1:24" ht="51" customHeight="1">
       <c r="A19" s="25"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="47"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="41"/>
       <c r="X19" s="23"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
@@ -1533,11 +1539,11 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="34"/>
       <c r="S20" s="34"/>
@@ -1575,34 +1581,34 @@
     </row>
     <row r="22" spans="1:24" ht="16.5" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="50" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="50" t="s">
+      <c r="P22" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
       <c r="X22" s="17"/>
     </row>
     <row r="23" spans="1:24" ht="7.5" customHeight="1">
@@ -1658,66 +1664,66 @@
     </row>
     <row r="25" spans="1:24" ht="16.5" customHeight="1">
       <c r="A25" s="24"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56" t="s">
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59" t="s">
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="55"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="54"/>
       <c r="X25" s="24"/>
     </row>
     <row r="26" spans="1:24" ht="16.5" customHeight="1">
       <c r="A26" s="24"/>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="51" t="s">
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="53"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="66"/>
       <c r="X26" s="24"/>
     </row>
     <row r="27" spans="1:24" ht="16.5" customHeight="1"/>
@@ -2696,6 +2702,27 @@
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="H7:V7"/>
+    <mergeCell ref="H8:V8"/>
+    <mergeCell ref="H9:V9"/>
+    <mergeCell ref="H10:V10"/>
+    <mergeCell ref="H11:V11"/>
+    <mergeCell ref="H12:V12"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:W16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:W17"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="M18:W18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:W19"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="P22:W22"/>
     <mergeCell ref="P26:W26"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B25:H25"/>
@@ -2703,27 +2730,6 @@
     <mergeCell ref="P25:W25"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="I26:O26"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:W19"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="P22:W22"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:W16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M17:W17"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="M18:W18"/>
-    <mergeCell ref="H9:V9"/>
-    <mergeCell ref="H10:V10"/>
-    <mergeCell ref="H11:V11"/>
-    <mergeCell ref="H12:V12"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="H7:V7"/>
-    <mergeCell ref="H8:V8"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:H15 W12:W15">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
